--- a/inst/extdata/datasets/FZ_ALL.xlsx
+++ b/inst/extdata/datasets/FZ_ALL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D7B55-9C01-8248-AE13-82C20CF0A65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672EE6C3-556D-1743-BFA4-9350D0114702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="2280" windowWidth="29460" windowHeight="19480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18080" yWindow="2280" windowWidth="29460" windowHeight="19480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>1,2,3,4,5</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -31551,7 +31551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D1448"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -51844,8 +51844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E243"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -51891,7 +51891,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>9</v>
@@ -51911,10 +51911,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -51931,7 +51931,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4"/>
     </row>
@@ -51949,7 +51949,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5"/>
     </row>
@@ -51967,7 +51967,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6"/>
     </row>
@@ -51985,7 +51985,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7"/>
     </row>
@@ -52003,7 +52003,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8"/>
     </row>
@@ -52021,7 +52021,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9"/>
     </row>
@@ -52039,7 +52039,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10"/>
     </row>
@@ -52057,7 +52057,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11"/>
     </row>
@@ -52075,7 +52075,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12"/>
     </row>
@@ -52093,7 +52093,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13"/>
     </row>
@@ -52111,7 +52111,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -52128,7 +52128,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -52145,7 +52145,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -52162,7 +52162,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -52179,7 +52179,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -52196,7 +52196,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -52213,7 +52213,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -52230,7 +52230,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -52247,7 +52247,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -52264,7 +52264,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -52281,7 +52281,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -52298,7 +52298,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -52315,7 +52315,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -52332,7 +52332,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -52349,7 +52349,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -52366,7 +52366,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -52383,7 +52383,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -52400,7 +52400,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -52417,7 +52417,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -52434,7 +52434,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -52451,7 +52451,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -52468,7 +52468,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -52485,7 +52485,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -52502,7 +52502,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -52519,7 +52519,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -52536,7 +52536,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -52553,7 +52553,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -52570,7 +52570,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -52587,7 +52587,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -52604,7 +52604,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -52621,7 +52621,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -52638,7 +52638,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -52655,7 +52655,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -52672,7 +52672,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -52689,7 +52689,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -52706,7 +52706,7 @@
         <v>8</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -52723,7 +52723,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -52740,7 +52740,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -52757,7 +52757,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -52774,7 +52774,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -52791,7 +52791,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -52808,7 +52808,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -52825,7 +52825,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -52842,7 +52842,7 @@
         <v>8</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -52859,7 +52859,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -52876,7 +52876,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -52893,7 +52893,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -52910,7 +52910,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -52927,7 +52927,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -52944,7 +52944,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -52961,7 +52961,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -52978,7 +52978,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -52995,7 +52995,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -53012,7 +53012,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -53029,7 +53029,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -53046,7 +53046,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -53063,7 +53063,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -53080,7 +53080,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -53097,7 +53097,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -53114,7 +53114,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -53131,7 +53131,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -53148,7 +53148,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -53165,7 +53165,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -53182,7 +53182,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -53199,7 +53199,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -53216,7 +53216,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -53233,7 +53233,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -53250,7 +53250,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -53267,7 +53267,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -53284,7 +53284,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -53301,7 +53301,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -53318,7 +53318,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -53335,7 +53335,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -53352,7 +53352,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -53369,7 +53369,7 @@
         <v>8</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -53386,7 +53386,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -53403,7 +53403,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -53420,7 +53420,7 @@
         <v>8</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -53437,7 +53437,7 @@
         <v>8</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -53454,7 +53454,7 @@
         <v>8</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -53471,7 +53471,7 @@
         <v>8</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -53488,7 +53488,7 @@
         <v>8</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -53505,7 +53505,7 @@
         <v>8</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -53522,7 +53522,7 @@
         <v>8</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -53539,7 +53539,7 @@
         <v>8</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -53556,7 +53556,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -53573,7 +53573,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -53590,7 +53590,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -53607,7 +53607,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -53624,7 +53624,7 @@
         <v>8</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -53641,7 +53641,7 @@
         <v>8</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -53658,7 +53658,7 @@
         <v>8</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -53675,7 +53675,7 @@
         <v>8</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -53692,7 +53692,7 @@
         <v>8</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -53709,7 +53709,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -53726,7 +53726,7 @@
         <v>8</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -53743,7 +53743,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -53760,7 +53760,7 @@
         <v>8</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -53777,7 +53777,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -53794,7 +53794,7 @@
         <v>8</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -53811,7 +53811,7 @@
         <v>8</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -53828,7 +53828,7 @@
         <v>8</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -53845,7 +53845,7 @@
         <v>8</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -53862,7 +53862,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -53879,7 +53879,7 @@
         <v>8</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -53896,7 +53896,7 @@
         <v>8</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -53913,7 +53913,7 @@
         <v>8</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -53930,7 +53930,7 @@
         <v>8</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -53947,7 +53947,7 @@
         <v>8</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -53964,7 +53964,7 @@
         <v>8</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -53981,7 +53981,7 @@
         <v>8</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -53998,7 +53998,7 @@
         <v>8</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -54015,7 +54015,7 @@
         <v>8</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -54032,7 +54032,7 @@
         <v>8</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -54049,7 +54049,7 @@
         <v>8</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -54066,7 +54066,7 @@
         <v>8</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -54083,7 +54083,7 @@
         <v>8</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -54100,7 +54100,7 @@
         <v>8</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -54117,7 +54117,7 @@
         <v>8</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -54134,7 +54134,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -54151,7 +54151,7 @@
         <v>8</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -54168,7 +54168,7 @@
         <v>8</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -54185,7 +54185,7 @@
         <v>8</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -54202,7 +54202,7 @@
         <v>8</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -54219,7 +54219,7 @@
         <v>8</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -54236,7 +54236,7 @@
         <v>8</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -54253,7 +54253,7 @@
         <v>8</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -54270,7 +54270,7 @@
         <v>8</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -54287,7 +54287,7 @@
         <v>8</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -54304,7 +54304,7 @@
         <v>8</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -54321,7 +54321,7 @@
         <v>8</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -54338,7 +54338,7 @@
         <v>8</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -54355,7 +54355,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -54372,7 +54372,7 @@
         <v>8</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -54389,7 +54389,7 @@
         <v>8</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -54406,7 +54406,7 @@
         <v>8</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -54423,7 +54423,7 @@
         <v>8</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -54440,7 +54440,7 @@
         <v>8</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -54457,7 +54457,7 @@
         <v>8</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -54474,7 +54474,7 @@
         <v>8</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -54491,7 +54491,7 @@
         <v>8</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -54508,7 +54508,7 @@
         <v>8</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -54525,7 +54525,7 @@
         <v>8</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -54542,7 +54542,7 @@
         <v>8</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
@@ -54559,7 +54559,7 @@
         <v>8</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -54576,7 +54576,7 @@
         <v>8</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -54593,7 +54593,7 @@
         <v>8</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -54610,7 +54610,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
@@ -54627,7 +54627,7 @@
         <v>8</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -54644,7 +54644,7 @@
         <v>8</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -54661,7 +54661,7 @@
         <v>8</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -54678,7 +54678,7 @@
         <v>8</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -54695,7 +54695,7 @@
         <v>8</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -54712,7 +54712,7 @@
         <v>8</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
@@ -54729,7 +54729,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -54746,7 +54746,7 @@
         <v>8</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
@@ -54763,7 +54763,7 @@
         <v>8</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
@@ -54780,7 +54780,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -54797,7 +54797,7 @@
         <v>8</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
@@ -54814,7 +54814,7 @@
         <v>8</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
@@ -54831,7 +54831,7 @@
         <v>8</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
@@ -54848,7 +54848,7 @@
         <v>8</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
@@ -54865,7 +54865,7 @@
         <v>8</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -54882,7 +54882,7 @@
         <v>8</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -54899,7 +54899,7 @@
         <v>8</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -54916,7 +54916,7 @@
         <v>8</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -54933,7 +54933,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -54950,7 +54950,7 @@
         <v>8</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -54967,7 +54967,7 @@
         <v>8</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
@@ -54984,7 +54984,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
@@ -55001,7 +55001,7 @@
         <v>8</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
@@ -55018,7 +55018,7 @@
         <v>8</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
@@ -55035,7 +55035,7 @@
         <v>8</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
@@ -55052,7 +55052,7 @@
         <v>8</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
@@ -55069,7 +55069,7 @@
         <v>8</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
@@ -55086,7 +55086,7 @@
         <v>8</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
@@ -55103,7 +55103,7 @@
         <v>8</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
@@ -55120,7 +55120,7 @@
         <v>8</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
@@ -55137,7 +55137,7 @@
         <v>8</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
@@ -55154,7 +55154,7 @@
         <v>8</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
@@ -55171,7 +55171,7 @@
         <v>8</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
@@ -55188,7 +55188,7 @@
         <v>8</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
@@ -55205,7 +55205,7 @@
         <v>8</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
@@ -55222,7 +55222,7 @@
         <v>8</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
@@ -55239,7 +55239,7 @@
         <v>8</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
@@ -55256,7 +55256,7 @@
         <v>8</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
@@ -55273,7 +55273,7 @@
         <v>8</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
@@ -55290,7 +55290,7 @@
         <v>8</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
@@ -55307,7 +55307,7 @@
         <v>8</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
@@ -55324,7 +55324,7 @@
         <v>8</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.15">
@@ -55341,7 +55341,7 @@
         <v>8</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
@@ -55358,7 +55358,7 @@
         <v>8</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
@@ -55375,7 +55375,7 @@
         <v>8</v>
       </c>
       <c r="E206" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
@@ -55392,7 +55392,7 @@
         <v>8</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.15">
@@ -55409,7 +55409,7 @@
         <v>8</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.15">
@@ -55426,7 +55426,7 @@
         <v>8</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.15">
@@ -55443,7 +55443,7 @@
         <v>8</v>
       </c>
       <c r="E210" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
@@ -55460,7 +55460,7 @@
         <v>8</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.15">
@@ -55477,7 +55477,7 @@
         <v>8</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
@@ -55494,7 +55494,7 @@
         <v>8</v>
       </c>
       <c r="E213" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.15">
@@ -55511,7 +55511,7 @@
         <v>8</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.15">
@@ -55528,7 +55528,7 @@
         <v>8</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
@@ -55545,7 +55545,7 @@
         <v>8</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.15">
@@ -55562,7 +55562,7 @@
         <v>8</v>
       </c>
       <c r="E217" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.15">
@@ -55579,7 +55579,7 @@
         <v>8</v>
       </c>
       <c r="E218" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.15">
@@ -55596,7 +55596,7 @@
         <v>8</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.15">
@@ -55613,7 +55613,7 @@
         <v>8</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.15">
@@ -55630,7 +55630,7 @@
         <v>8</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.15">
@@ -55647,7 +55647,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.15">
@@ -55664,7 +55664,7 @@
         <v>8</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
@@ -55681,7 +55681,7 @@
         <v>8</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.15">
@@ -55698,7 +55698,7 @@
         <v>8</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.15">
@@ -55715,7 +55715,7 @@
         <v>8</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.15">
@@ -55732,7 +55732,7 @@
         <v>8</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.15">
@@ -55749,7 +55749,7 @@
         <v>8</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.15">
@@ -55766,7 +55766,7 @@
         <v>8</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.15">
@@ -55783,7 +55783,7 @@
         <v>8</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.15">
@@ -55800,7 +55800,7 @@
         <v>8</v>
       </c>
       <c r="E231" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
@@ -55817,7 +55817,7 @@
         <v>8</v>
       </c>
       <c r="E232" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.15">
@@ -55834,7 +55834,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.15">
@@ -55851,7 +55851,7 @@
         <v>8</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.15">
@@ -55868,7 +55868,7 @@
         <v>8</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.15">
@@ -55885,7 +55885,7 @@
         <v>8</v>
       </c>
       <c r="E236" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.15">
@@ -55902,7 +55902,7 @@
         <v>8</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
@@ -55919,7 +55919,7 @@
         <v>8</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
@@ -55936,7 +55936,7 @@
         <v>8</v>
       </c>
       <c r="E239" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.15">
@@ -55953,7 +55953,7 @@
         <v>8</v>
       </c>
       <c r="E240" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.15">
@@ -55970,7 +55970,7 @@
         <v>8</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.15">
@@ -55987,7 +55987,7 @@
         <v>8</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.15">
@@ -56004,7 +56004,7 @@
         <v>8</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
